--- a/Info/Global_Links_to_CoinData.xlsx
+++ b/Info/Global_Links_to_CoinData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>№</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>Средней удобности набор таблиц всех монет с тиражами. Франция (1814-2001), Британия (1694-up), Ирландия(1727-2001), Португалия(1786-2001), США(все?), Евро (2001-up), Испания(1556-2001), Германия (1871-2001)</t>
+  </si>
+  <si>
+    <t>coinsspb.com</t>
+  </si>
+  <si>
+    <t>Знаки монетных дворов мира</t>
+  </si>
+  <si>
+    <t>Grading сохранности монет</t>
   </si>
 </sst>
 </file>
@@ -201,8 +210,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица4" displayName="Таблица4" ref="A1:C10" totalsRowShown="0">
-  <autoFilter ref="A1:C10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица4" displayName="Таблица4" ref="A1:C12" totalsRowShown="0">
+  <autoFilter ref="A1:C12">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -485,18 +494,18 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="57.1796875" customWidth="1"/>
-    <col min="3" max="3" width="104.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="104.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -518,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -529,7 +538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -540,7 +549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -551,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -562,7 +571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -573,7 +582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -584,7 +593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -595,7 +604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -606,31 +615,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
@@ -645,12 +656,14 @@
     <hyperlink ref="B7" r:id="rId7"/>
     <hyperlink ref="B8" r:id="rId8"/>
     <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Info/Global_Links_to_CoinData.xlsx
+++ b/Info/Global_Links_to_CoinData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Links_to_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Coin_Shops" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>№</t>
   </si>
@@ -116,13 +117,28 @@
   </si>
   <si>
     <t>Grading сохранности монет</t>
+  </si>
+  <si>
+    <t>https://www.kladpoisk.ru</t>
+  </si>
+  <si>
+    <t>https://vsempomonete.ru/</t>
+  </si>
+  <si>
+    <t>Есть выгодные предложения, самовывоз</t>
+  </si>
+  <si>
+    <t>Есть некоторые выгодные скидки, самовывоз</t>
+  </si>
+  <si>
+    <t>https://www.monetnik.ru/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,16 +161,36 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -162,12 +198,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,6 +292,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -490,11 +619,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,4 +795,76 @@
     <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/Info/Global_Links_to_CoinData.xlsx
+++ b/Info/Global_Links_to_CoinData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Links_to_Data" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>№</t>
   </si>
@@ -132,13 +132,37 @@
   </si>
   <si>
     <t>https://www.monetnik.ru/</t>
+  </si>
+  <si>
+    <t>https://poiskmonet.com/</t>
+  </si>
+  <si>
+    <t>Есть выгодные предложения США, самовывоз</t>
+  </si>
+  <si>
+    <t>https://perevoznikov-coins.ru/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть выгодные предложения  США, только почта </t>
+  </si>
+  <si>
+    <t>usacoinbook</t>
+  </si>
+  <si>
+    <t>USA shop</t>
+  </si>
+  <si>
+    <t>usmint.gov</t>
+  </si>
+  <si>
+    <t>USA official mint shop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +193,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -190,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -274,12 +304,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,21 +377,127 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -346,11 +528,27 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Links:" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="1" name="№" dataDxfId="7"/>
+    <tableColumn id="2" name="Links:" dataDxfId="6" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description:" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C8" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:C8">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="№" dataDxfId="1"/>
+    <tableColumn id="2" name="Links:"/>
     <tableColumn id="3" name="Description:" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -626,15 +824,15 @@
       <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="104.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="57.1796875" customWidth="1"/>
+    <col min="3" max="3" width="104.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -656,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -667,7 +865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -678,7 +876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -689,7 +887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -700,7 +898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -711,7 +909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -722,7 +920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -733,7 +931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -744,7 +942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -755,7 +953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -764,12 +962,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -799,23 +997,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" customWidth="1"/>
+    <col min="2" max="2" width="57.1796875" customWidth="1"/>
+    <col min="3" max="3" width="60.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -826,45 +1024,97 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <tableParts count="1">
+    <tablePart r:id="rId9"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Info/Global_Links_to_CoinData.xlsx
+++ b/Info/Global_Links_to_CoinData.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>USA official mint shop</t>
+  </si>
+  <si>
+    <t>http://10rubley.ru/</t>
+  </si>
+  <si>
+    <t>Довольно дешево, самовывоз</t>
   </si>
 </sst>
 </file>
@@ -537,8 +543,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C8" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:C8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C9" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:C9">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -997,13 +1003,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1099,6 +1105,17 @@
       </c>
       <c r="C8" s="12" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Info/Global_Links_to_CoinData.xlsx
+++ b/Info/Global_Links_to_CoinData.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>Довольно дешево, самовывоз</t>
+  </si>
+  <si>
+    <t>Есть выгодные предложения дешево, самовывоз</t>
+  </si>
+  <si>
+    <t>http://monetioptom.ru/</t>
+  </si>
+  <si>
+    <t>https://coinsbolhov.ru/</t>
+  </si>
+  <si>
+    <t>Дешёвые Евро, относительно дешевые США, относительно дешевые РФ; есть самовывоз</t>
   </si>
 </sst>
 </file>
@@ -543,8 +555,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C9" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:C9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C11" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:C11">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1003,13 +1015,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1118,6 +1130,28 @@
         <v>38</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
@@ -1127,11 +1161,13 @@
     <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
     <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Info/Global_Links_to_CoinData.xlsx
+++ b/Info/Global_Links_to_CoinData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Links_to_Data" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Стандартный каталог Krause монет мира с 1901 г. по 2000 г.</t>
   </si>
   <si>
-    <t>Стандартный каталог Krause монет мира с 2001 г. по 2019 г.</t>
-  </si>
-  <si>
     <t>Стандартный каталог Krause монет мира с 1801 по 1900 годы, 7-е издание.</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Дешёвые Евро, относительно дешевые США, относительно дешевые РФ; есть самовывоз</t>
+  </si>
+  <si>
+    <t>Стандартный каталог Krause монет мира с 2001 г. по 2015 г.</t>
   </si>
 </sst>
 </file>
@@ -835,11 +835,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -877,10 +877,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -899,10 +899,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -910,10 +910,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -921,10 +921,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -935,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -943,10 +943,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -954,10 +954,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -965,19 +965,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1017,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1047,10 +1047,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1058,10 +1058,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1069,10 +1069,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1080,10 +1080,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1091,10 +1091,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1102,10 +1102,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1113,10 +1113,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1124,10 +1124,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1135,10 +1135,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1146,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Info/Global_Links_to_CoinData.xlsx
+++ b/Info/Global_Links_to_CoinData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Links_to_Data" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>№</t>
   </si>
@@ -174,13 +174,22 @@
   </si>
   <si>
     <t>Стандартный каталог Krause монет мира с 2001 г. по 2015 г.</t>
+  </si>
+  <si>
+    <t>thehobby</t>
+  </si>
+  <si>
+    <t>Город Хобби. Есть выгодные предложения, самовывоз</t>
+  </si>
+  <si>
+    <t>Город Хобби. Есть дешевые Евро. Самовывоз</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +226,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -373,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,6 +428,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -419,6 +444,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -516,15 +550,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -546,25 +571,25 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="7"/>
-    <tableColumn id="2" name="Links:" dataDxfId="6" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description:" dataDxfId="5"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Links:" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C11" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:C11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C12" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:C12">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="1"/>
+    <tableColumn id="1" name="№" dataDxfId="4"/>
     <tableColumn id="2" name="Links:"/>
-    <tableColumn id="3" name="Description:" dataDxfId="0"/>
+    <tableColumn id="3" name="Description:" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -835,11 +860,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -972,7 +997,9 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1015,13 +1042,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1061,7 +1088,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1150,6 +1177,17 @@
       </c>
       <c r="C11" s="12" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1163,11 +1201,12 @@
     <hyperlink ref="B8" r:id="rId7"/>
     <hyperlink ref="B10" r:id="rId8"/>
     <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Info/Global_Links_to_CoinData.xlsx
+++ b/Info/Global_Links_to_CoinData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Links_to_Data" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>№</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>Город Хобби. Есть дешевые Евро. Самовывоз</t>
+  </si>
+  <si>
+    <t>Euro_coin_varieties_2019</t>
+  </si>
+  <si>
+    <t>Разновидности евро с фото (бекап 2019)</t>
   </si>
 </sst>
 </file>
@@ -445,15 +451,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -550,6 +547,15 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -564,32 +570,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица4" displayName="Таблица4" ref="A1:C12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица4" displayName="Таблица4" ref="A1:C13" totalsRowShown="0">
+  <autoFilter ref="A1:C13">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="№" dataDxfId="7"/>
+    <tableColumn id="2" name="Links:" dataDxfId="6" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description:" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C12" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A1:C12">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Links:" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="1" name="№" dataDxfId="1"/>
+    <tableColumn id="2" name="Links:"/>
     <tableColumn id="3" name="Description:" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C12" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:C12">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="4"/>
-    <tableColumn id="2" name="Links:"/>
-    <tableColumn id="3" name="Description:" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -860,11 +866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1008,9 +1014,15 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -1030,12 +1042,13 @@
     <hyperlink ref="B10" r:id="rId9"/>
     <hyperlink ref="B11" r:id="rId10"/>
     <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1044,11 +1057,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Info/Global_Links_to_CoinData.xlsx
+++ b/Info/Global_Links_to_CoinData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Links_to_Data" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>№</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Разновидности евро с фото (бекап 2019)</t>
+  </si>
+  <si>
+    <t>Есть относительно дешевые евро. Самовывоз.</t>
+  </si>
+  <si>
+    <t>numizm</t>
   </si>
 </sst>
 </file>
@@ -451,6 +457,15 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -547,15 +562,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -577,25 +583,25 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="7"/>
-    <tableColumn id="2" name="Links:" dataDxfId="6" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description:" dataDxfId="5"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Links:" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C12" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:C12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C13" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:C13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="1"/>
+    <tableColumn id="1" name="№" dataDxfId="4"/>
     <tableColumn id="2" name="Links:"/>
-    <tableColumn id="3" name="Description:" dataDxfId="0"/>
+    <tableColumn id="3" name="Description:" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -866,11 +872,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1055,13 +1061,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1203,6 +1209,15 @@
         <v>45</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
@@ -1215,11 +1230,12 @@
     <hyperlink ref="B10" r:id="rId8"/>
     <hyperlink ref="B11" r:id="rId9"/>
     <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Info/Global_Links_to_CoinData.xlsx
+++ b/Info/Global_Links_to_CoinData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C3AFFE-DAF1-4713-91F2-78BC3CE668BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Links_to_Data" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>№</t>
   </si>
@@ -195,12 +196,18 @@
   </si>
   <si>
     <t>numizm</t>
+  </si>
+  <si>
+    <t>https://en.numista.com/</t>
+  </si>
+  <si>
+    <t>Евро с описанием изображения</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -396,12 +403,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,6 +465,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -456,15 +475,6 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -562,6 +572,15 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -576,32 +595,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица4" displayName="Таблица4" ref="A1:C13" totalsRowShown="0">
-  <autoFilter ref="A1:C13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C13" totalsRowShown="0">
+  <autoFilter ref="A1:C13" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Links:" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description:" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Links:" dataDxfId="6" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description:" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C13" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:C13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A1:C14" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:C14" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="4"/>
-    <tableColumn id="2" name="Links:"/>
-    <tableColumn id="3" name="Description:" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="№" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Links:"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -869,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1037,18 +1056,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="p75892"/>
-    <hyperlink ref="B9" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B8" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B2" r:id="rId1" location="p75892" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
@@ -1060,14 +1079,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1218,24 +1237,37 @@
         <v>48</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="18"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{35A6C464-6720-43CE-9D23-3928AEA75C19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Info/Global_Links_to_CoinData.xlsx
+++ b/Info/Global_Links_to_CoinData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C3AFFE-DAF1-4713-91F2-78BC3CE668BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790A1E87-90A3-445A-AD34-96BDA7B35AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,6 +467,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,8 +598,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C13" totalsRowShown="0">
-  <autoFilter ref="A1:C13" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C14" totalsRowShown="0">
+  <autoFilter ref="A1:C14" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -895,7 +898,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B13:B14"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1050,9 +1053,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1068,12 +1077,13 @@
     <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{35A6C464-6720-43CE-9D23-3928AEA75C19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
-  <legacyDrawing r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1086,7 +1096,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1239,12 +1249,6 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
-      <c r="B14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="18"/>
@@ -1262,7 +1266,7 @@
     <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
     <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{35A6C464-6720-43CE-9D23-3928AEA75C19}"/>
+    <hyperlink ref="B9" r:id="rId12" xr:uid="{6FAA4EB1-4E1A-4AE2-A1C3-424059AC6DF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>

--- a/Info/Global_Links_to_CoinData.xlsx
+++ b/Info/Global_Links_to_CoinData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790A1E87-90A3-445A-AD34-96BDA7B35AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5D76F5-3C3A-4498-BEDB-057EFA36F74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>№</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>Евро с описанием изображения</t>
+  </si>
+  <si>
+    <t>https://collmart.ru/</t>
+  </si>
+  <si>
+    <t>Есть относительно дешевые евро.</t>
   </si>
 </sst>
 </file>
@@ -614,8 +620,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A1:C14" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:C14" xr:uid="{00000000-0009-0000-0100-000002000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A1:C15" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:C15" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1096,7 +1102,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="B14:C14"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1243,12 +1249,23 @@
       <c r="B13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
+      <c r="B14" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="18"/>
@@ -1267,11 +1284,12 @@
     <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
     <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="B9" r:id="rId12" xr:uid="{6FAA4EB1-4E1A-4AE2-A1C3-424059AC6DF0}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{E1545BFE-2B8B-4B6A-BA47-7B96418ED6F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Info/Global_Links_to_CoinData.xlsx
+++ b/Info/Global_Links_to_CoinData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5D76F5-3C3A-4498-BEDB-057EFA36F74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B35FAA1-97D1-4332-B756-1791571854CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1090" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Links_to_Data" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>№</t>
   </si>
@@ -201,13 +201,19 @@
     <t>https://en.numista.com/</t>
   </si>
   <si>
-    <t>Евро с описанием изображения</t>
-  </si>
-  <si>
     <t>https://collmart.ru/</t>
   </si>
   <si>
     <t>Есть относительно дешевые евро.</t>
+  </si>
+  <si>
+    <t>https://www.euromuenzen-agrell.eu/</t>
+  </si>
+  <si>
+    <t>Евро с описанием и тиражом</t>
+  </si>
+  <si>
+    <t>Евро с описанием изображения и тиражом</t>
   </si>
 </sst>
 </file>
@@ -279,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -409,21 +415,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,11 +469,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -484,6 +484,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -581,15 +590,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -604,32 +604,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C14" totalsRowShown="0">
-  <autoFilter ref="A1:C14" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C16" totalsRowShown="0">
+  <autoFilter ref="A1:C16" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Links:" dataDxfId="6" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description:" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Links:" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A1:C15" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:C15" xr:uid="{00000000-0009-0000-0100-000002000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A1:C16" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:C16" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="№" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="№" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Links:"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description:" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description:" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -898,13 +898,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1062,12 +1062,28 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>51</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1084,12 +1100,13 @@
     <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="B14" r:id="rId13" xr:uid="{35A6C464-6720-43CE-9D23-3928AEA75C19}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{0867686E-7F8F-40EB-85F8-57B84FC401AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
-  <legacyDrawing r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <legacyDrawing r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1098,11 +1115,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1245,7 +1262,9 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
       <c r="B13" s="17" t="s">
         <v>49</v>
       </c>
@@ -1254,21 +1273,25 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
       <c r="B14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Info/Global_Links_to_CoinData.xlsx
+++ b/Info/Global_Links_to_CoinData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B35FAA1-97D1-4332-B756-1791571854CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5289A3ED-4959-4AB9-A2B9-CC5DD00B29DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1090" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4250" yWindow="780" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Links_to_Data" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>№</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Евро с описанием изображения и тиражом</t>
+  </si>
+  <si>
+    <t>https://www.coins-market.ru/</t>
   </si>
 </sst>
 </file>
@@ -485,15 +488,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -590,6 +584,15 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -611,25 +614,25 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Links:" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description:" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Links:" dataDxfId="6" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description:" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A1:C16" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A1:C16" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A1:C16" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="№" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Links:"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description:" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -904,7 +907,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1081,9 +1084,15 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1101,12 +1110,13 @@
     <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="B14" r:id="rId13" xr:uid="{35A6C464-6720-43CE-9D23-3928AEA75C19}"/>
     <hyperlink ref="B15" r:id="rId14" xr:uid="{0867686E-7F8F-40EB-85F8-57B84FC401AC}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{2AC225E6-B529-461D-8251-A6070B4F363E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
-  <legacyDrawing r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
+  <legacyDrawing r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
